--- a/server_version/results/set1.xlsx
+++ b/server_version/results/set1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>L</t>
   </si>
@@ -73,13 +73,16 @@
     <t>error</t>
   </si>
   <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>ER Sepsis Triage IV Liquid CRP LacticAcid IV Antibiotics Return ER Leucocytes ER Triage Admission NC Release A ER Registration</t>
+  </si>
+  <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>Return ER IV Antibiotics Admission NC ER Sepsis Triage ER Triage LacticAcid Leucocytes Release A IV Liquid ER Registration CRP</t>
-  </si>
-  <si>
-    <t>Return ER IV Antibiotics Admission NC ER Sepsis Triage ER Triage LacticAcid Leucocytes Release A IV Liquid ER Registration CRP Admission IC</t>
+    <t>ER Sepsis Triage IV Liquid CRP LacticAcid IV Antibiotics Return ER Admission IC Leucocytes ER Triage Admission NC Release A ER Registration</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,7 +532,7 @@
         <v>20</v>
       </c>
       <c r="R2">
-        <v>2.697313785552979</v>
+        <v>5.190190076828003</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -540,28 +543,28 @@
         <v>80</v>
       </c>
       <c r="C3">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="D3">
         <v>0.7</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9933441217921293</v>
+        <v>0.9888505480469973</v>
       </c>
       <c r="H3">
-        <v>89.42857142857143</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="I3">
-        <v>0.2182351972135932</v>
+        <v>0.2302572462837924</v>
       </c>
       <c r="J3">
-        <v>0.357851354706468</v>
+        <v>0.3735354744483567</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -570,22 +573,806 @@
         <v>0</v>
       </c>
       <c r="M3">
+        <v>228</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>842</v>
+      </c>
+      <c r="P3">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3">
+        <v>1.715410947799683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>0.8</v>
+      </c>
+      <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.9933441217921293</v>
+      </c>
+      <c r="H4">
+        <v>89.42857142857143</v>
+      </c>
+      <c r="I4">
+        <v>0.2182351972135932</v>
+      </c>
+      <c r="J4">
+        <v>0.357851354706468</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>111</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>842</v>
-      </c>
-      <c r="P3">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>842</v>
+      </c>
+      <c r="P4">
         <v>12</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4">
+        <v>1.176889896392822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
+      <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="R3">
-        <v>3.213365793228149</v>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.9933441217921293</v>
+      </c>
+      <c r="H5">
+        <v>89.42857142857143</v>
+      </c>
+      <c r="I5">
+        <v>0.2182351972135932</v>
+      </c>
+      <c r="J5">
+        <v>0.357851354706468</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>111</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>842</v>
+      </c>
+      <c r="P5">
+        <v>12</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5">
+        <v>1.372368097305298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="C6">
+        <v>0.35</v>
+      </c>
+      <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.9888505480469973</v>
+      </c>
+      <c r="H6">
+        <v>80.95238095238095</v>
+      </c>
+      <c r="I6">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J6">
+        <v>0.3735354744483567</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>228</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>842</v>
+      </c>
+      <c r="P6">
+        <v>11</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6">
+        <v>1.248658657073975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>0.35</v>
+      </c>
+      <c r="D7">
+        <v>0.7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.9888505480469973</v>
+      </c>
+      <c r="H7">
+        <v>80.95238095238095</v>
+      </c>
+      <c r="I7">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J7">
+        <v>0.3735354744483567</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>228</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>842</v>
+      </c>
+      <c r="P7">
+        <v>11</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7">
+        <v>1.281572341918945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>150</v>
+      </c>
+      <c r="C8">
+        <v>0.8</v>
+      </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9888505480469973</v>
+      </c>
+      <c r="H8">
+        <v>80.95238095238095</v>
+      </c>
+      <c r="I8">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J8">
+        <v>0.3735354744483567</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>228</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>842</v>
+      </c>
+      <c r="P8">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8">
+        <v>1.20178484916687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>0.8</v>
+      </c>
+      <c r="D9">
+        <v>0.7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9888505480469973</v>
+      </c>
+      <c r="H9">
+        <v>80.95238095238095</v>
+      </c>
+      <c r="I9">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J9">
+        <v>0.3735354744483567</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>228</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>842</v>
+      </c>
+      <c r="P9">
+        <v>11</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9">
+        <v>1.443140983581543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>0.35</v>
+      </c>
+      <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9888505480469973</v>
+      </c>
+      <c r="H10">
+        <v>80.95238095238095</v>
+      </c>
+      <c r="I10">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J10">
+        <v>0.3735354744483567</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>228</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>842</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10">
+        <v>1.342408657073975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>0.35</v>
+      </c>
+      <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9888505480469973</v>
+      </c>
+      <c r="H11">
+        <v>80.95238095238095</v>
+      </c>
+      <c r="I11">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J11">
+        <v>0.3735354744483567</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>228</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>842</v>
+      </c>
+      <c r="P11">
+        <v>11</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11">
+        <v>1.336427211761475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>0.8</v>
+      </c>
+      <c r="D12">
+        <v>0.9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9933441217921293</v>
+      </c>
+      <c r="H12">
+        <v>89.42857142857143</v>
+      </c>
+      <c r="I12">
+        <v>0.2182351972135932</v>
+      </c>
+      <c r="J12">
+        <v>0.357851354706468</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>111</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>842</v>
+      </c>
+      <c r="P12">
+        <v>12</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12">
+        <v>1.259629726409912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>0.8</v>
+      </c>
+      <c r="D13">
+        <v>0.9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9933441217921293</v>
+      </c>
+      <c r="H13">
+        <v>89.42857142857143</v>
+      </c>
+      <c r="I13">
+        <v>0.2182351972135932</v>
+      </c>
+      <c r="J13">
+        <v>0.357851354706468</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>111</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>842</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13">
+        <v>1.402250528335571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>150</v>
+      </c>
+      <c r="C14">
+        <v>0.35</v>
+      </c>
+      <c r="D14">
+        <v>0.9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9888505480469973</v>
+      </c>
+      <c r="H14">
+        <v>80.95238095238095</v>
+      </c>
+      <c r="I14">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J14">
+        <v>0.3735354744483567</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>228</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>842</v>
+      </c>
+      <c r="P14">
+        <v>11</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14">
+        <v>1.22472620010376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>150</v>
+      </c>
+      <c r="C15">
+        <v>0.35</v>
+      </c>
+      <c r="D15">
+        <v>0.9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9888505480469973</v>
+      </c>
+      <c r="H15">
+        <v>80.95238095238095</v>
+      </c>
+      <c r="I15">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J15">
+        <v>0.3735354744483567</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>228</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>842</v>
+      </c>
+      <c r="P15">
+        <v>11</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15">
+        <v>1.309496879577637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>150</v>
+      </c>
+      <c r="C16">
+        <v>0.8</v>
+      </c>
+      <c r="D16">
+        <v>0.9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9888505480469973</v>
+      </c>
+      <c r="H16">
+        <v>80.95238095238095</v>
+      </c>
+      <c r="I16">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J16">
+        <v>0.3735354744483567</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>228</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>842</v>
+      </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16">
+        <v>1.373327255249023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>150</v>
+      </c>
+      <c r="C17">
+        <v>0.8</v>
+      </c>
+      <c r="D17">
+        <v>0.9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9888505480469973</v>
+      </c>
+      <c r="H17">
+        <v>80.95238095238095</v>
+      </c>
+      <c r="I17">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J17">
+        <v>0.3735354744483567</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>228</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>842</v>
+      </c>
+      <c r="P17">
+        <v>11</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17">
+        <v>1.307017803192139</v>
       </c>
     </row>
   </sheetData>
